--- a/biology/Zoologie/Anthiinae_(Carabidae)/Anthiinae_(Carabidae).xlsx
+++ b/biology/Zoologie/Anthiinae_(Carabidae)/Anthiinae_(Carabidae).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anthiinae sont une sous-famille d'insectes coléoptères de la famille des Carabidae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette sous-famille habitent principalement les régions tropicales mais les distributions de certains représentants des tribus Anthiini Bonelli, 1813 et Helluonini Hope, 1838 s'étendent à la région holarctique. La plus grande diversité d'espèces en dehors des tropiques est enregistrée dans les parties méridionales des sous-régions paléarctique et néarctique. Les représentants de la sous-tribu Helluonina Hope, 1838 habitent la totalité du continent australien[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette sous-famille habitent principalement les régions tropicales mais les distributions de certains représentants des tribus Anthiini Bonelli, 1813 et Helluonini Hope, 1838 s'étendent à la région holarctique. La plus grande diversité d'espèces en dehors des tropiques est enregistrée dans les parties méridionales des sous-régions paléarctique et néarctique. Les représentants de la sous-tribu Helluonina Hope, 1838 habitent la totalité du continent australien.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces sont ailées alors que d'autres sont aptères[1].
-La plupart sont nocturnes et sont prédateurs comme la plupart des carabes[1] et chassent au sol d'autres arthropodes. Un grand nombre d'espèces de cette sous-famille se nourrissent de termites[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces sont ailées alors que d'autres sont aptères.
+La plupart sont nocturnes et sont prédateurs comme la plupart des carabes et chassent au sol d'autres arthropodes. Un grand nombre d'espèces de cette sous-famille se nourrissent de termites.
 </t>
         </is>
       </c>
@@ -574,14 +590,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette sous-famille a été décrite par l'entomologiste italien Franco Andrea Bonelli en 1813[2].
-Publication originale
-Bonelli, F. A. 1813. Observations entomologiques. Deuxième partie. Memoire della Reale Accademia della Scienze di Torino, 20: 433-484.
-Liste des genres
-Cette sous-famille inclut trois tribus : Anthiini Bonelli, 1813, Helluonini Hope, 1838 et Physocrotaphini Chaudoir, 1863 pour un total de 41 genres et 350 espèces[1].
-Liste des genres[3],[1]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-famille a été décrite par l'entomologiste italien Franco Andrea Bonelli en 1813.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anthiinae_(Carabidae)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthiinae_(Carabidae)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bonelli, F. A. 1813. Observations entomologiques. Deuxième partie. Memoire della Reale Accademia della Scienze di Torino, 20: 433-484.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anthiinae_(Carabidae)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anthiinae_(Carabidae)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette sous-famille inclut trois tribus : Anthiini Bonelli, 1813, Helluonini Hope, 1838 et Physocrotaphini Chaudoir, 1863 pour un total de 41 genres et 350 espèces.
+Liste des genres,:
 Tribu des Anthiini Bonelli, 1813
 Sous-tribu des Anthiina Bonelli, 1813
 Genre Anthia Weber, 1801
